--- a/DataDrivenFB/CredentialsOfFb.xlsx
+++ b/DataDrivenFB/CredentialsOfFb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B79F6E-2FE3-47E6-BEEF-62644AA88AD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F93C24E-FF9F-46F0-A332-269C6D623117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,16 +38,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,12 +74,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,25 +363,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -399,9 +390,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0279B688-9B88-42EF-A51C-3DBE9F39EC8D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{542CADFE-569F-4AB8-A698-6D0DA1BB6B98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>